--- a/output23.xlsx
+++ b/output23.xlsx
@@ -11,7 +11,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+  <si>
+    <t>NIRANI SUGAR LIMITED</t>
+  </si>
+  <si>
+    <t>sdfas kl skldfja fklasfasoa  adsdfaso</t>
+  </si>
+  <si>
+    <t>DISTELLARY ENERGY REPORT</t>
+  </si>
+  <si>
+    <t>Date From</t>
+  </si>
+  <si>
+    <t>10/9/2023</t>
+  </si>
+  <si>
+    <t>Date To</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
   <si>
     <t>Group</t>
   </si>
@@ -146,13 +173,37 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
       <scheme val="minor"/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="003366"/>
+      <sz val="30"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="black"/>
+      <sz val="13"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="048204"/>
+      <sz val="20"/>
+    </font>
+    <font>
+      <color rgb="3e658b"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="black"/>
+      <sz val="25"/>
     </font>
     <font>
       <color rgb="FFFFFF"/>
@@ -163,7 +214,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,11 +223,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ccff"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="333399"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ffff00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="305496"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -184,16 +255,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -220,9 +322,9 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3545966" cy="575976"/>
@@ -621,197 +723,682 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A9:M19"/>
+  <dimension ref="A1:N26"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="5" width="20" customWidth="1"/>
     <col min="6" max="13" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="E8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="B16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="C16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="D16" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="E16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="F16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="G16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="H16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="I16" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
+      <c r="J16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="K16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="L16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="M16" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="B17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="C17" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="D17" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
+      <c r="E17" s="10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="F17">
+        <v>204798.36</v>
+      </c>
+      <c r="G17">
+        <v>204798.36</v>
+      </c>
+      <c r="H17">
+        <v>72.54</v>
+      </c>
+      <c r="I17">
+        <v>72.54</v>
+      </c>
+      <c r="J17">
+        <v>72.54</v>
+      </c>
+      <c r="K17">
+        <v>72.54</v>
+      </c>
+      <c r="L17">
+        <v>72.54</v>
+      </c>
+      <c r="M17">
+        <v>72.54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C18" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D18" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E18" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F18">
+        <v>144.78</v>
+      </c>
+      <c r="G18">
+        <v>144.78</v>
+      </c>
+      <c r="H18">
+        <v>378.76000000000005</v>
+      </c>
+      <c r="I18">
+        <v>378.76000000000005</v>
+      </c>
+      <c r="J18">
+        <v>378.76000000000005</v>
+      </c>
+      <c r="K18">
+        <v>378.76000000000005</v>
+      </c>
+      <c r="L18">
+        <v>378.76000000000005</v>
+      </c>
+      <c r="M18">
+        <v>378.76000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
+      <c r="C19" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
+      <c r="D19" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="E19" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="F19">
+        <v>144.78</v>
+      </c>
+      <c r="G19">
+        <v>289.56</v>
+      </c>
+      <c r="H19">
+        <v>378.76000000000005</v>
+      </c>
+      <c r="I19">
+        <v>757.5200000000001</v>
+      </c>
+      <c r="J19">
+        <v>378.76000000000005</v>
+      </c>
+      <c r="K19">
+        <v>757.5200000000001</v>
+      </c>
+      <c r="L19">
+        <v>378.76000000000005</v>
+      </c>
+      <c r="M19">
+        <v>757.5200000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F20">
+        <v>144.78</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20">
+        <v>378.76000000000005</v>
+      </c>
+      <c r="I20"/>
+      <c r="J20">
+        <v>378.76000000000005</v>
+      </c>
+      <c r="K20"/>
+      <c r="L20">
+        <v>378.76000000000005</v>
+      </c>
+      <c r="M20"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
+      <c r="B21" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C21" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D21" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E21" s="10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
+      <c r="F21">
+        <v>144.78</v>
+      </c>
+      <c r="G21">
+        <v>204943.13999999998</v>
+      </c>
+      <c r="H21">
+        <v>378.76000000000005</v>
+      </c>
+      <c r="I21">
+        <v>451.30000000000007</v>
+      </c>
+      <c r="J21">
+        <v>378.76000000000005</v>
+      </c>
+      <c r="K21">
+        <v>451.30000000000007</v>
+      </c>
+      <c r="L21">
+        <v>378.76000000000005</v>
+      </c>
+      <c r="M21">
+        <v>451.30000000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
+      <c r="F22">
+        <v>204798.36</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22">
+        <v>72.54</v>
+      </c>
+      <c r="I22"/>
+      <c r="J22">
+        <v>72.54</v>
+      </c>
+      <c r="K22"/>
+      <c r="L22">
+        <v>72.54</v>
+      </c>
+      <c r="M22"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="C23" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23">
+        <v>204798.36</v>
+      </c>
+      <c r="G23">
+        <v>204798.36</v>
+      </c>
+      <c r="H23">
+        <v>72.54</v>
+      </c>
+      <c r="I23">
+        <v>72.54</v>
+      </c>
+      <c r="J23">
+        <v>72.54</v>
+      </c>
+      <c r="K23">
+        <v>72.54</v>
+      </c>
+      <c r="L23">
+        <v>72.54</v>
+      </c>
+      <c r="M23">
+        <v>72.54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24">
+        <v>144.78</v>
+      </c>
+      <c r="G24">
+        <v>205087.91999999998</v>
+      </c>
+      <c r="H24">
+        <v>378.76000000000005</v>
+      </c>
+      <c r="I24">
+        <v>830.0600000000002</v>
+      </c>
+      <c r="J24">
+        <v>378.76000000000005</v>
+      </c>
+      <c r="K24">
+        <v>830.0600000000002</v>
+      </c>
+      <c r="L24">
+        <v>378.76000000000005</v>
+      </c>
+      <c r="M24">
+        <v>830.0600000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25">
+        <v>204798.36</v>
+      </c>
+      <c r="G25"/>
+      <c r="H25">
+        <v>72.54</v>
+      </c>
+      <c r="I25"/>
+      <c r="J25">
+        <v>72.54</v>
+      </c>
+      <c r="K25"/>
+      <c r="L25">
+        <v>72.54</v>
+      </c>
+      <c r="M25"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26">
+        <v>144.78</v>
+      </c>
+      <c r="G26"/>
+      <c r="H26">
+        <v>378.76000000000005</v>
+      </c>
+      <c r="I26"/>
+      <c r="J26">
+        <v>378.76000000000005</v>
+      </c>
+      <c r="K26"/>
+      <c r="L26">
+        <v>378.76000000000005</v>
+      </c>
+      <c r="M26"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
+  <mergeCells count="34">
+    <mergeCell ref="A1:C11"/>
+    <mergeCell ref="D1:G3"/>
+    <mergeCell ref="H1:N11"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="D10:G11"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="A13:M15"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="M24:M26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/output23.xlsx
+++ b/output23.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>NIRANI SUGAR LIMITED</t>
   </si>
@@ -79,6 +79,9 @@
     <t>Group Total KWH</t>
   </si>
   <si>
+    <t>TG Meter</t>
+  </si>
+  <si>
     <t>Power Vision1</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Main I/C</t>
-  </si>
-  <si>
-    <t>TG Meter</t>
   </si>
   <si>
     <t>Power Visoion G2</t>
@@ -723,7 +723,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N27"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="5" width="20" customWidth="1"/>
@@ -1025,343 +1025,390 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="B18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="D18" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F17">
+      <c r="E18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18">
         <v>204798.36</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>204798.36</v>
       </c>
-      <c r="H17">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>72.54</v>
       </c>
-      <c r="I17">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
         <v>72.54</v>
       </c>
-      <c r="J17">
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
         <v>72.54</v>
       </c>
-      <c r="K17">
-        <v>72.54</v>
-      </c>
-      <c r="L17">
-        <v>72.54</v>
-      </c>
-      <c r="M17">
-        <v>72.54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18">
-        <v>144.78</v>
-      </c>
-      <c r="G18">
-        <v>144.78</v>
-      </c>
-      <c r="H18">
-        <v>378.76000000000005</v>
-      </c>
-      <c r="I18">
-        <v>378.76000000000005</v>
-      </c>
-      <c r="J18">
-        <v>378.76000000000005</v>
-      </c>
-      <c r="K18">
-        <v>378.76000000000005</v>
-      </c>
-      <c r="L18">
-        <v>378.76000000000005</v>
-      </c>
-      <c r="M18">
-        <v>378.76000000000005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F19">
         <v>144.78</v>
       </c>
       <c r="G19">
-        <v>289.56</v>
+        <v>144.78</v>
       </c>
       <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>378.76000000000005</v>
       </c>
-      <c r="I19">
-        <v>757.5200000000001</v>
-      </c>
       <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
         <v>378.76000000000005</v>
       </c>
-      <c r="K19">
-        <v>757.5200000000001</v>
-      </c>
       <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
         <v>378.76000000000005</v>
       </c>
-      <c r="M19">
-        <v>757.5200000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+      <c r="B20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="E20" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F20">
         <v>144.78</v>
       </c>
-      <c r="G20"/>
+      <c r="G20">
+        <v>289.56</v>
+      </c>
       <c r="H20">
-        <v>378.76000000000005</v>
-      </c>
-      <c r="I20"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>757.5200000000001</v>
+      </c>
       <c r="J20">
-        <v>378.76000000000005</v>
-      </c>
-      <c r="K20"/>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>757.5200000000001</v>
+      </c>
       <c r="L20">
-        <v>378.76000000000005</v>
-      </c>
-      <c r="M20"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>757.5200000000001</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F21">
         <v>144.78</v>
       </c>
-      <c r="G21">
+      <c r="G21"/>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21"/>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21"/>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21"/>
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22">
+        <v>144.78</v>
+      </c>
+      <c r="G22">
         <v>204943.13999999998</v>
       </c>
-      <c r="H21">
-        <v>378.76000000000005</v>
-      </c>
-      <c r="I21">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>451.30000000000007</v>
       </c>
-      <c r="J21">
-        <v>378.76000000000005</v>
-      </c>
-      <c r="K21">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
         <v>451.30000000000007</v>
       </c>
-      <c r="L21">
-        <v>378.76000000000005</v>
-      </c>
-      <c r="M21">
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
         <v>451.30000000000007</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10" t="s">
+      <c r="N22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="F22">
-        <v>204798.36</v>
-      </c>
-      <c r="G22"/>
-      <c r="H22">
-        <v>72.54</v>
-      </c>
-      <c r="I22"/>
-      <c r="J22">
-        <v>72.54</v>
-      </c>
-      <c r="K22"/>
-      <c r="L22">
-        <v>72.54</v>
-      </c>
-      <c r="M22"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="F23">
         <v>204798.36</v>
       </c>
-      <c r="G23">
-        <v>204798.36</v>
-      </c>
+      <c r="G23"/>
       <c r="H23">
-        <v>72.54</v>
-      </c>
-      <c r="I23">
-        <v>72.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23"/>
       <c r="J23">
-        <v>72.54</v>
-      </c>
-      <c r="K23">
-        <v>72.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K23"/>
       <c r="L23">
-        <v>72.54</v>
-      </c>
-      <c r="M23">
-        <v>72.54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M23"/>
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24">
+        <v>204798.36</v>
+      </c>
+      <c r="G24">
+        <v>204798.36</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>72.54</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>72.54</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>72.54</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D25" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E25" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <v>144.78</v>
       </c>
-      <c r="G24">
+      <c r="G25">
         <v>205087.91999999998</v>
       </c>
-      <c r="H24">
-        <v>378.76000000000005</v>
-      </c>
-      <c r="I24">
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>830.0600000000002</v>
       </c>
-      <c r="J24">
-        <v>378.76000000000005</v>
-      </c>
-      <c r="K24">
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
         <v>830.0600000000002</v>
       </c>
-      <c r="L24">
-        <v>378.76000000000005</v>
-      </c>
-      <c r="M24">
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>830.0600000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25">
-        <v>204798.36</v>
-      </c>
-      <c r="G25"/>
-      <c r="H25">
-        <v>72.54</v>
-      </c>
-      <c r="I25"/>
-      <c r="J25">
-        <v>72.54</v>
-      </c>
-      <c r="K25"/>
-      <c r="L25">
-        <v>72.54</v>
-      </c>
-      <c r="M25"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F26">
-        <v>144.78</v>
+        <v>204798.36</v>
       </c>
       <c r="G26"/>
       <c r="H26">
-        <v>378.76000000000005</v>
+        <v>0</v>
       </c>
       <c r="I26"/>
       <c r="J26">
-        <v>378.76000000000005</v>
+        <v>0</v>
       </c>
       <c r="K26"/>
       <c r="L26">
-        <v>378.76000000000005</v>
+        <v>0</v>
       </c>
       <c r="M26"/>
+      <c r="N26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27">
+        <v>144.78</v>
+      </c>
+      <c r="G27"/>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27"/>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27"/>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27"/>
+      <c r="N27">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -1376,29 +1423,29 @@
     <mergeCell ref="D10:G11"/>
     <mergeCell ref="A12:M12"/>
     <mergeCell ref="A13:M15"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="M24:M26"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="M25:M27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/output23.xlsx
+++ b/output23.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>NIRANI SUGAR LIMITED</t>
   </si>
@@ -40,18 +40,6 @@
     <t>abc</t>
   </si>
   <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>Sub Group 1</t>
-  </si>
-  <si>
-    <t>Sub Group 2</t>
-  </si>
-  <si>
-    <t>Sub Group 3</t>
-  </si>
-  <si>
     <t>Meters</t>
   </si>
   <si>
@@ -79,94 +67,19 @@
     <t>Group Total KWH</t>
   </si>
   <si>
-    <t>TG Meter</t>
-  </si>
-  <si>
-    <t>Power Vision1</t>
-  </si>
-  <si>
-    <t>Power Visoion G1</t>
-  </si>
-  <si>
-    <t>Grid Incomer</t>
-  </si>
-  <si>
-    <t>Main I/C</t>
-  </si>
-  <si>
-    <t>Power Visoion G2</t>
-  </si>
-  <si>
-    <t>Generation</t>
-  </si>
-  <si>
-    <t>Generator</t>
-  </si>
-  <si>
-    <t>GRID</t>
-  </si>
-  <si>
-    <t>Power Vision G3</t>
-  </si>
-  <si>
-    <t>Bus Coupler</t>
-  </si>
-  <si>
-    <t>B/C</t>
-  </si>
-  <si>
-    <t>METER 3</t>
-  </si>
-  <si>
-    <t>METER 7</t>
-  </si>
-  <si>
-    <t>Power Vision2</t>
-  </si>
-  <si>
-    <t>Power Vision GA1</t>
-  </si>
-  <si>
-    <t>Auxillary Consump</t>
-  </si>
-  <si>
-    <t>Aux</t>
-  </si>
-  <si>
-    <t>METER 4</t>
-  </si>
-  <si>
-    <t>METER 5</t>
-  </si>
-  <si>
-    <t>Power Vision GA3</t>
-  </si>
-  <si>
-    <t>Sinter 1</t>
-  </si>
-  <si>
-    <t>Sinter1 &amp;3</t>
-  </si>
-  <si>
-    <t>METER 10</t>
-  </si>
-  <si>
-    <t>Power Vision GA2</t>
-  </si>
-  <si>
-    <t>HT Motor</t>
-  </si>
-  <si>
-    <t>Sinter</t>
-  </si>
-  <si>
-    <t>METER 6</t>
-  </si>
-  <si>
-    <t>METER 8</t>
-  </si>
-  <si>
-    <t>METER 9</t>
+    <t>SDC STP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hydroleap</t>
+  </si>
+  <si>
+    <t>No Data</t>
+  </si>
+  <si>
+    <t>Hydroleap_PUB Desalination</t>
+  </si>
+  <si>
+    <t>Winstech Seringat</t>
   </si>
 </sst>
 </file>
@@ -723,11 +636,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N20"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="5" width="20" customWidth="1"/>
-    <col min="6" max="13" width="13" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -922,7 +835,7 @@
       <c r="M11"/>
       <c r="N11"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -932,12 +845,8 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>8</v>
       </c>
@@ -949,12 +858,8 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -964,12 +869,8 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -979,25 +880,21 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="9" t="s">
@@ -1012,406 +909,125 @@
       <c r="I16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="9" t="s">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="B17">
+        <v>204798.36</v>
+      </c>
+      <c r="C17">
+        <v>204798.36</v>
+      </c>
+      <c r="D17">
+        <v>72.54</v>
+      </c>
+      <c r="E17">
+        <v>72.54</v>
+      </c>
+      <c r="F17">
+        <v>72.54</v>
+      </c>
+      <c r="G17">
+        <v>72.54</v>
+      </c>
+      <c r="H17">
+        <v>72.54</v>
+      </c>
+      <c r="I17">
+        <v>72.54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="M16" s="9" t="s">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E17" s="10" t="s">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18">
-        <v>204798.36</v>
-      </c>
-      <c r="G18">
-        <v>204798.36</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>72.54</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>72.54</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>72.54</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19">
+      <c r="B20">
         <v>144.78</v>
       </c>
-      <c r="G19">
+      <c r="C20">
         <v>144.78</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
+      <c r="D20">
         <v>378.76000000000005</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
+      <c r="E20">
         <v>378.76000000000005</v>
       </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
+      <c r="F20">
         <v>378.76000000000005</v>
       </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20">
-        <v>144.78</v>
-      </c>
       <c r="G20">
-        <v>289.56</v>
+        <v>378.76000000000005</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>378.76000000000005</v>
       </c>
       <c r="I20">
-        <v>757.5200000000001</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>757.5200000000001</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>757.5200000000001</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21">
-        <v>144.78</v>
-      </c>
-      <c r="G21"/>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21"/>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21"/>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21"/>
-      <c r="N21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22">
-        <v>144.78</v>
-      </c>
-      <c r="G22">
-        <v>204943.13999999998</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>451.30000000000007</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>451.30000000000007</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>451.30000000000007</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23">
-        <v>204798.36</v>
-      </c>
-      <c r="G23"/>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23"/>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23"/>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23"/>
-      <c r="N23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24">
-        <v>204798.36</v>
-      </c>
-      <c r="G24">
-        <v>204798.36</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>72.54</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>72.54</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>72.54</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25">
-        <v>144.78</v>
-      </c>
-      <c r="G25">
-        <v>205087.91999999998</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>830.0600000000002</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>830.0600000000002</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>830.0600000000002</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26">
-        <v>204798.36</v>
-      </c>
-      <c r="G26"/>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26"/>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26"/>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26"/>
-      <c r="N26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27">
-        <v>144.78</v>
-      </c>
-      <c r="G27"/>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27"/>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27"/>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27"/>
-      <c r="N27">
-        <v>0</v>
+        <v>378.76000000000005</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="11">
     <mergeCell ref="A1:C11"/>
     <mergeCell ref="D1:G3"/>
     <mergeCell ref="H1:N11"/>
@@ -1421,31 +1037,8 @@
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="D10:G11"/>
-    <mergeCell ref="A12:M12"/>
-    <mergeCell ref="A13:M15"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A13:I15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/output23.xlsx
+++ b/output23.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>NIRANI SUGAR LIMITED</t>
   </si>
@@ -67,19 +67,19 @@
     <t>Group Total KWH</t>
   </si>
   <si>
-    <t>SDC STP</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hydroleap</t>
+    <t>TG Meter</t>
   </si>
   <si>
     <t>No Data</t>
   </si>
   <si>
-    <t>Hydroleap_PUB Desalination</t>
-  </si>
-  <si>
-    <t>Winstech Seringat</t>
+    <t>GRID</t>
+  </si>
+  <si>
+    <t>METER 3</t>
+  </si>
+  <si>
+    <t>METER 5</t>
   </si>
 </sst>
 </file>
@@ -914,55 +914,55 @@
       <c r="A17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B17">
-        <v>204798.36</v>
+      <c r="B17" t="s">
+        <v>19</v>
       </c>
       <c r="C17">
-        <v>204798.36</v>
-      </c>
-      <c r="D17">
-        <v>72.54</v>
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
       </c>
       <c r="E17">
-        <v>72.54</v>
-      </c>
-      <c r="F17">
-        <v>72.54</v>
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
       </c>
       <c r="G17">
-        <v>72.54</v>
-      </c>
-      <c r="H17">
-        <v>72.54</v>
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>19</v>
       </c>
       <c r="I17">
-        <v>72.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -973,25 +973,25 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1001,29 +1001,29 @@
       <c r="A20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B20">
-        <v>144.78</v>
+      <c r="B20" t="s">
+        <v>19</v>
       </c>
       <c r="C20">
-        <v>144.78</v>
-      </c>
-      <c r="D20">
-        <v>378.76000000000005</v>
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
       </c>
       <c r="E20">
-        <v>378.76000000000005</v>
-      </c>
-      <c r="F20">
-        <v>378.76000000000005</v>
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
       </c>
       <c r="G20">
-        <v>378.76000000000005</v>
-      </c>
-      <c r="H20">
-        <v>378.76000000000005</v>
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>19</v>
       </c>
       <c r="I20">
-        <v>378.76000000000005</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
